--- a/biology/Zoologie/Conus_behelokensis/Conus_behelokensis.xlsx
+++ b/biology/Zoologie/Conus_behelokensis/Conus_behelokensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus behelokensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 34 mm et 65 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique se trouve dans l'ouest de l'océan Indien.
 </t>
@@ -576,19 +592,93 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus behelokensis a été décrite pour la première fois en 1989 par le malacologiste français José Lauer (1937-2002)[1] dans la publication intitulée « Rossiniana »[2],[3].
-Synonymes
-Conus (Darioconus) behelokensis Lauer, 1989 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus behelokensis a été décrite pour la première fois en 1989 par le malacologiste français José Lauer (1937-2002) dans la publication intitulée « Rossiniana »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_behelokensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_behelokensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Darioconus) behelokensis Lauer, 1989 · appellation alternative
 Conus (Darioconus) rosiae (Monnier, Batifoix &amp; Limpalaër, 2018) · non accepté
 Conus pennaceus behelokensis Lauer, 1989 · non accepté
 Conus rosiae (Monnier, Batifoix &amp; Limpalaër, 2018) · non accepté
 Darioconus behelokensis (Lauer, 1989) · non accepté
 Darioconus behelokensis f. pseudoracemosus Bozzetti, 2012 · non accepté
 Darioconus pseudoracemosus (Bozzetti, 2012) · non accepté
-Darioconus rosiae Monnier, Batifoix &amp; Limpalaër, 2018 · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus behelokensis dans les principales bases sont les suivants :
+Darioconus rosiae Monnier, Batifoix &amp; Limpalaër, 2018 · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_behelokensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_behelokensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus behelokensis dans les principales bases sont les suivants :
 CoL : XWZ9 - GBIF : 5795759 - IRMNG : 10535216 - 
 </t>
         </is>
